--- a/BOM/main_board_BOM.xlsx
+++ b/BOM/main_board_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,12 +474,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -475,6 +481,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,7 +849,7 @@
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -843,25 +867,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -892,444 +916,444 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+    <row r="7" spans="1:11" s="10" customFormat="1">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" s="10" customFormat="1">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" s="10" customFormat="1">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>1206</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1">
+      <c r="A19" s="9">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1">
+      <c r="A20" s="9">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" s="10" customFormat="1">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3"/>
@@ -1359,8 +1383,8 @@
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1371,10 +1395,10 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <f>SUM(C7:C24)</f>
         <v>22</v>
       </c>
